--- a/realme/May/All Details/13.05.2021/realme Bank Statement May-2021.xlsx
+++ b/realme/May/All Details/13.05.2021/realme Bank Statement May-2021.xlsx
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>Eid Bonus</t>
+  </si>
+  <si>
+    <t>Mobile Park</t>
+  </si>
+  <si>
+    <t>10 Pcs C25/64</t>
   </si>
 </sst>
 </file>
@@ -2430,6 +2436,24 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,12 +2481,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,18 +2491,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,73 +4286,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
     </row>
     <row r="2" spans="1:26" s="134" customFormat="1" ht="18">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
     </row>
     <row r="3" spans="1:26" s="135" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="253" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="248"/>
-      <c r="S3" s="249"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="255"/>
       <c r="U3" s="59"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4355,58 +4361,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="137" customFormat="1">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="245" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="245" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="254" t="s">
+      <c r="H4" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="254" t="s">
+      <c r="I4" s="245" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="254" t="s">
+      <c r="J4" s="245" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="254" t="s">
+      <c r="L4" s="245" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="254" t="s">
+      <c r="M4" s="245" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="254" t="s">
+      <c r="N4" s="245" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="260" t="s">
+      <c r="O4" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="249" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="258" t="s">
+      <c r="Q4" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="256" t="s">
+      <c r="R4" s="260" t="s">
         <v>45</v>
       </c>
       <c r="S4" s="136" t="s">
@@ -4419,24 +4425,24 @@
       <c r="Y4" s="139"/>
     </row>
     <row r="5" spans="1:26" s="137" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="251"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="255"/>
-      <c r="K5" s="255"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="261"/>
-      <c r="P5" s="263"/>
-      <c r="Q5" s="259"/>
-      <c r="R5" s="257"/>
+      <c r="A5" s="257"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="246"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="250"/>
+      <c r="Q5" s="263"/>
+      <c r="R5" s="261"/>
       <c r="S5" s="141" t="s">
         <v>46</v>
       </c>
@@ -7519,11 +7525,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7540,6 +7541,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7552,14 +7558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A113" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="122" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="47" bestFit="1" customWidth="1"/>
@@ -8321,11 +8327,13 @@
     <row r="12" spans="1:61">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>37000</v>
+      </c>
       <c r="D12" s="54"/>
       <c r="E12" s="54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="F12" s="54"/>
       <c r="G12" s="62"/>
@@ -9754,7 +9762,7 @@
       </c>
       <c r="C33" s="54">
         <f>SUM(C5:C32)</f>
-        <v>-264340</v>
+        <v>-227340</v>
       </c>
       <c r="D33" s="54">
         <f>SUM(D5:D32)</f>
@@ -9762,11 +9770,11 @@
       </c>
       <c r="E33" s="54">
         <f>SUM(E5:E32)</f>
-        <v>-264340</v>
+        <v>-227340</v>
       </c>
       <c r="F33" s="54">
         <f>B33-E33</f>
-        <v>264340</v>
+        <v>227340</v>
       </c>
       <c r="G33" s="71"/>
       <c r="H33" s="199"/>
@@ -9961,7 +9969,7 @@
       <c r="D36" s="279"/>
       <c r="E36" s="75">
         <f>F33-C113+K136</f>
-        <v>167700</v>
+        <v>0</v>
       </c>
       <c r="F36" s="54"/>
       <c r="G36" s="71"/>
@@ -10360,10 +10368,18 @@
       <c r="BI41" s="192"/>
     </row>
     <row r="42" spans="1:61">
-      <c r="A42" s="131"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="50"/>
+      <c r="A42" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="54">
+        <v>130700</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="F42" s="50"/>
       <c r="G42" s="81"/>
       <c r="H42" s="81"/>
@@ -14974,7 +14990,7 @@
       <c r="B113" s="266"/>
       <c r="C113" s="111">
         <f>SUM(C37:C112)</f>
-        <v>96640</v>
+        <v>227340</v>
       </c>
       <c r="D113" s="112"/>
       <c r="F113" s="104"/>
@@ -15109,7 +15125,7 @@
       <c r="B115" s="268"/>
       <c r="C115" s="116">
         <f>C113+L136</f>
-        <v>96640</v>
+        <v>227340</v>
       </c>
       <c r="D115" s="117"/>
       <c r="F115" s="99"/>
@@ -17686,7 +17702,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17803,7 +17819,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>1698310</v>
+        <v>1567610</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17951,7 +17967,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="43">
-        <v>96640</v>
+        <v>227340</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="34"/>
